--- a/biology/Zoologie/Auguste_Boissonneau/Auguste_Boissonneau.xlsx
+++ b/biology/Zoologie/Auguste_Boissonneau/Auguste_Boissonneau.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Auguste Boissonneau (26 juillet 1802 à Saumur – 7 juillet 1883 à Paris), est un ornithologue, naturaliste, émailleur-verrier et fabricant de prothèses oculaires français. Il ne doit pas être confondu avec Pierre-Auguste Boissonneau, fils.
 </t>
@@ -511,11 +523,13 @@
           <t>Verrier, émailleur, prothésiste</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Auguste Boissonneau était un artiste-oculiste ou « oculariste », terme inventé par lui-même et décrivant les personnes préparant des prothèses oculaires (œil de verre).
-Il pratiqua sa spécialité qu'il appelait l'« ocularistique » pour l'armée et des hôpitaux civils[1].
-Auguste Boissonneau meurt le 7 juillet 1883 à Paris ; il est inhumé au cimetière communal de La Celle-Saint-Avant[2].
+Il pratiqua sa spécialité qu'il appelait l'« ocularistique » pour l'armée et des hôpitaux civils.
+Auguste Boissonneau meurt le 7 juillet 1883 à Paris ; il est inhumé au cimetière communal de La Celle-Saint-Avant.
 </t>
         </is>
       </c>
@@ -544,10 +558,48 @@
           <t>Naturaliste</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Boissonneaua a été nommé en hommage à Auguste Boissonneau. Il s'agit d'un genre de colibris (famille des Trochilidae) présents au nord-ouest de l'Amérique du Sud.
-Quelques espèces identifiées
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Auguste_Boissonneau</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Auguste_Boissonneau</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Naturaliste</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Quelques espèces identifiées</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Sur les autres projets Wikimedia :
 Auguste Boissonneau, sur Wikispecies
 Quelques espèces identifiées par Auguste Boissonneau :
@@ -568,34 +620,39 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Auguste_Boissonneau</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Auguste_Boissonneau</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Ornithologie
-Nouvelles espèces d'Oiseaux-Mouches de Santa-Fé de Bogota, par M. Boissonneau, Revue zoologique la Société cuviérienne, 1839, S. 354–356
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Ornithologie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Nouvelles espèces d'Oiseaux-Mouches de Santa-Fé de Bogota, par M. Boissonneau, Revue zoologique la Société cuviérienne, 1839, S. 354–356
 G. Oiseau-Mouche. Ornismya. Lesson. O. M. A barbe singulière. O. heteropogon. Boissonneau, Magasin de Zoologie, D'Anatomie Comparee Et de Paleontolgie, 1840, plus Tafel 12
 G. Oiseau-Mouche. Ornismya. Lesson. O. M. de Pauline. O. Paulinæ. Boissonneau, Magasin de Zoologie, D'Anatomie Comparee Et de Paleontolgie, 1840, plus Tafel 13
 G. Oiseau-Mouche. Ornismya. Lesson. O.-M. de Temminck. O. Temminckii. Boissonn., Magasin de Zoologie, D'Anatomie Comparee Et de Paleontolgie, 1840, plus Tafel 14
@@ -605,9 +662,43 @@
 Nouvelle espèce du genre Pic, par M. Boissonneau, Revue zoologique la Société cuviérienne, 1840, S. 36–37
 Oiseaux nouveaux de Santa-Fé de Bogota, par M. Boissonneau, Revue zoologique la Société cuviérienne, 1840, S. 66–71
 Classification méthodique d'ornithologie européenne sur étiquettes, par M. A. Boissonneau. (Paris, chez l'auteur, rue Neuve-des-Mathurins, 19 Prix: 20 francs.), Revue zoologique la Société cuviérienne, 1840, S. 36–37
-G. Tangara. Linné. (Group des Tangaras Euphones) T. de Vassor. T. Vassorii. Boissonneau, Magasin de Zoologie, D'Anatomie Comparee Et de Paleontolgie, 1841, plus Tafel 23
-Prothèses oculaires
-Mémoire sur la prothèse oculaire et sur les améliorations apportées aux yeux artificiels, Paris, 1840, S. 350
+G. Tangara. Linné. (Group des Tangaras Euphones) T. de Vassor. T. Vassorii. Boissonneau, Magasin de Zoologie, D'Anatomie Comparee Et de Paleontolgie, 1841, plus Tafel 23</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Auguste_Boissonneau</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Auguste_Boissonneau</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Prothèses oculaires</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Mémoire sur la prothèse oculaire et sur les améliorations apportées aux yeux artificiels, Paris, 1840, S. 350
 Traité théorique et pratique de l'œil artificiel, ou perfectionnements apportés à la prothèse oculaire, Paris, 1840
 Indications pathologiques à transmettre pour diriger par correspondance la fabrication des yeux artificiels humains, Paris 1842
 Recherche sur l'histoire des yeux artifisiels, Annales de la Société de médecine de Gand, 1843
@@ -619,9 +710,43 @@
 Yeux artificiels mobiles, indications générales ou guide pratique de l'œil artificiel perfectionné, Germer-Baillière Éd., Paris, 1849
 Des yeux artificiels chez tes aveugles, Annales d'oculistique, Band 30, 1854, S. 146
 De la restauration de la physionomie chez les personnes privées d'un œil: ou, Exposé d'un nouvel œil artificiel à double échancrure interne, Paris, 1858
-Tarif raisonné de M. Boissonneau, Oculariste de l'Armée et des Hôpitaux civils et instructions sur l'appropiation, l'introduction et l'extraction de l'œil artificiel, Bonaventure et Ducessois, 1861
-Divers
-Itinéraire des voyages annuels, A. Appert, 1862</t>
+Tarif raisonné de M. Boissonneau, Oculariste de l'Armée et des Hôpitaux civils et instructions sur l'appropiation, l'introduction et l'extraction de l'œil artificiel, Bonaventure et Ducessois, 1861</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Auguste_Boissonneau</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Auguste_Boissonneau</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Divers</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Itinéraire des voyages annuels, A. Appert, 1862</t>
         </is>
       </c>
     </row>
